--- a/InfoProyectoRedes2_Erick.xlsx
+++ b/InfoProyectoRedes2_Erick.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>No.</t>
   </si>
@@ -39,13 +39,126 @@
   </si>
   <si>
     <t>Explicación del Funcionamiento</t>
+  </si>
+  <si>
+    <t>Cisco 2811 router 2811 w/ AC PWR, 2FE, 4HWICs, 2PVDMs, 1NME, 2AIMS, IP BASE, 128F/512D</t>
+  </si>
+  <si>
+    <t>Router designado para el sistema autónomo VODAFONE</t>
+  </si>
+  <si>
+    <t>Router designado para el sistema autónomo ORANGE</t>
+  </si>
+  <si>
+    <t>Router designado para el sistema autónomo TELEFÓNICA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R0:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CISCO2811 Cisco 2811 Router 2800 Series ISR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  CISCO2811 Cisco 2811 Router 2800 Series ISR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">R2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CISCO2811 Cisco 2811 Router 2800 Series ISR</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +170,29 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,45 +221,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </left>
@@ -145,8 +242,8 @@
       <right style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </right>
-      <top style="medium">
-        <color theme="1"/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
         <color theme="1" tint="0.499984740745262"/>
@@ -157,11 +254,11 @@
       <left style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
         <color theme="1" tint="0.499984740745262"/>
@@ -169,51 +266,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -255,6 +307,90 @@
       </top>
       <bottom style="medium">
         <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -262,25 +398,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,83 +718,107 @@
   <dimension ref="A3:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
+    <row r="5" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="6"/>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="14" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InfoProyectoRedes2_Erick.xlsx
+++ b/InfoProyectoRedes2_Erick.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>No.</t>
   </si>
@@ -152,6 +152,114 @@
       </rPr>
       <t xml:space="preserve"> CISCO2811 Cisco 2811 Router 2800 Series ISR</t>
     </r>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Activar el Router R0 para configuración</t>
+  </si>
+  <si>
+    <t>Configure terminal</t>
+  </si>
+  <si>
+    <t>Activar la configuración del Router R0</t>
+  </si>
+  <si>
+    <t>Router bgp 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuración de las Redes que están conectadas al Sistema Autónomo 100 </t>
+  </si>
+  <si>
+    <t>Configuración del protocolo BGP al router R0 y se le asigna el número 100 como Sistema autónomo VODAFONE</t>
+  </si>
+  <si>
+    <t>Sale de la configuración del router R0</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>neighbor 10.1.1.2 remote-as 300</t>
+  </si>
+  <si>
+    <t>Se especifican las direcciones IP vecinas juntamente con el Sistema Autónomo vecino al que pertenecen</t>
+  </si>
+  <si>
+    <t>Show ip route</t>
+  </si>
+  <si>
+    <t>Despliega información de la tabla de rutas del router R0</t>
+  </si>
+  <si>
+    <t>Show ip bgp neighbors</t>
+  </si>
+  <si>
+    <t>Despliega información de la tabla de vecinos bgp del Sistema Autónomo VODAFONE</t>
+  </si>
+  <si>
+    <t>Activar el Router R1 para configuración</t>
+  </si>
+  <si>
+    <t>Activar la configuración del Router R1</t>
+  </si>
+  <si>
+    <t>Router bgp 300</t>
+  </si>
+  <si>
+    <t>Configuración del protocolo BGP al router R1 y se le asigna el número 300 como Sistema autónomo ORANGE</t>
+  </si>
+  <si>
+    <t>network 10.1.1.0 mask 255.0.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuración de las Redes que están conectadas al Sistema Autónomo 300 </t>
+  </si>
+  <si>
+    <t>neighbor 10.1.1.1 remote-as 100</t>
+  </si>
+  <si>
+    <t>Sale de la configuración del router R1</t>
+  </si>
+  <si>
+    <t>Despliega información de la tabla de rutas del router R1</t>
+  </si>
+  <si>
+    <t>Despliega información de la tabla de vecinos bgp del Sistema Autónomo ORANGE</t>
+  </si>
+  <si>
+    <t>network 20.1.1.0 mask 255.0.0.0</t>
+  </si>
+  <si>
+    <t>neighbor 20.1.1.1 remote-as 200</t>
+  </si>
+  <si>
+    <t>Activar el Router R2 para configuración</t>
+  </si>
+  <si>
+    <t>Activar la configuración del Router R2</t>
+  </si>
+  <si>
+    <t>Configuración del protocolo BGP al router R2 y se le asigna el número 200 como Sistema autónomo TELEFÓNICA</t>
+  </si>
+  <si>
+    <t>Router bgp 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuración de las Redes que están conectadas al Sistema Autónomo 200 </t>
+  </si>
+  <si>
+    <t>neighbor 20.1.1.2 remote-as 300</t>
+  </si>
+  <si>
+    <t>Sale de la configuración del router R2</t>
+  </si>
+  <si>
+    <t>Despliega información de la tabla de rutas del router R2</t>
+  </si>
+  <si>
+    <t>Despliega información de la tabla de vecinos bgp del Sistema Autónomo TELEFÓNICA</t>
   </si>
 </sst>
 </file>
@@ -198,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +319,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -251,17 +365,86 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="medium">
         <color theme="1"/>
       </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -276,7 +459,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -291,7 +474,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -304,90 +487,6 @@
       </right>
       <top style="thin">
         <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -398,41 +497,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -715,110 +838,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E11"/>
+  <dimension ref="A3:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="14" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="15" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="14" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
+    <row r="26" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
